--- a/test1/Animations.xlsx
+++ b/test1/Animations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>__default__</t>
   </si>
@@ -37,12 +37,18 @@
     <t>ID</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
     <t>AnimationType</t>
   </si>
   <si>
+    <t>TargetType</t>
+  </si>
+  <si>
     <t>AttackDamageRatio</t>
   </si>
   <si>
@@ -55,13 +61,37 @@
     <t>Idle</t>
   </si>
   <si>
-    <t>Walk</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Roll</t>
+    <t>WalkForward</t>
+  </si>
+  <si>
+    <t>WalkForwardWithFire</t>
+  </si>
+  <si>
+    <t>WalkBack</t>
+  </si>
+  <si>
+    <t>WalkLeft</t>
+  </si>
+  <si>
+    <t>WalkRight</t>
+  </si>
+  <si>
+    <t>RunForward</t>
+  </si>
+  <si>
+    <t>RunBack</t>
+  </si>
+  <si>
+    <t>RunLeft</t>
+  </si>
+  <si>
+    <t>RunRight</t>
+  </si>
+  <si>
+    <t>RollForward</t>
+  </si>
+  <si>
+    <t>RollBack</t>
   </si>
   <si>
     <t>Jump</t>
@@ -70,13 +100,67 @@
     <t>Fall</t>
   </si>
   <si>
-    <t>AttackLite</t>
-  </si>
-  <si>
-    <t>AttackHeavy</t>
-  </si>
-  <si>
-    <t>AttackSpecial</t>
+    <t>SingleAtk1</t>
+  </si>
+  <si>
+    <t>SingleAtk2</t>
+  </si>
+  <si>
+    <t>SingleAtk3</t>
+  </si>
+  <si>
+    <t>SingleAtk4</t>
+  </si>
+  <si>
+    <t>SingleAtk5</t>
+  </si>
+  <si>
+    <t>TwoCombo1Part1</t>
+  </si>
+  <si>
+    <t>TwoCombo1Part2</t>
+  </si>
+  <si>
+    <t>TwoCombo2Part1</t>
+  </si>
+  <si>
+    <t>TwoCombo2Part2</t>
+  </si>
+  <si>
+    <t>TwoCombo3Part1</t>
+  </si>
+  <si>
+    <t>TwoCombo3Part2</t>
+  </si>
+  <si>
+    <t>ThreeCombo1Part1</t>
+  </si>
+  <si>
+    <t>ThreeCombo1Part2</t>
+  </si>
+  <si>
+    <t>ThreeCombo1Part3</t>
+  </si>
+  <si>
+    <t>ThreeCombo2Part1</t>
+  </si>
+  <si>
+    <t>ThreeCombo2Part2</t>
+  </si>
+  <si>
+    <t>ThreeCombo2Part3</t>
+  </si>
+  <si>
+    <t>KickAtk1</t>
+  </si>
+  <si>
+    <t>KickAtk2</t>
+  </si>
+  <si>
+    <t>JumpAtk1</t>
+  </si>
+  <si>
+    <t>JumpAtk2</t>
   </si>
   <si>
     <t>BreakLite</t>
@@ -98,6 +182,15 @@
   </si>
   <si>
     <t>攻击招式的韧性保护因子</t>
+  </si>
+  <si>
+    <t>此表与weapon frame的关联</t>
+  </si>
+  <si>
+    <t>此表与weapondata的combo</t>
+  </si>
+  <si>
+    <t>animator作为联系中介</t>
   </si>
 </sst>
 </file>
@@ -106,8 +199,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -138,14 +231,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,46 +267,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,8 +298,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,7 +352,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,25 +383,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,55 +551,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,97 +563,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,6 +601,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -523,17 +625,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,20 +645,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,7 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,130 +697,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1066,46 +1159,52 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6636363636364" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="15.6636363636364" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.3636363636364" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.3636363636364" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24" style="2" customWidth="1"/>
-    <col min="8" max="16377" width="15.6636363636364" style="2" customWidth="1"/>
-    <col min="16378" max="16384" width="15.6636363636364" style="2"/>
+    <col min="1" max="3" width="15.6636363636364" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.6363636363636" style="2" customWidth="1"/>
+    <col min="5" max="6" width="15.6636363636364" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.3636363636364" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27.3636363636364" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24" style="2" customWidth="1"/>
+    <col min="10" max="16379" width="15.6636363636364" style="2" customWidth="1"/>
+    <col min="16380" max="16384" width="15.6636363636364" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:11">
+    <row r="1" ht="15.5" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="3">
-        <v>0</v>
-      </c>
+      <c r="D1" s="3"/>
       <c r="E1" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1" s="3">
         <v>1</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="H1" s="3">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3">
+        <v>1</v>
+      </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="14" spans="1:7">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1113,22 +1212,28 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15.5" spans="1:7">
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15.5" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1141,324 +1246,1175 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>0</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
-        <v>101</v>
+        <v>1011</v>
       </c>
       <c r="B5" s="2">
-        <v>101</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
+        <v>1011</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1011</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
-        <v>102</v>
+        <v>101101</v>
       </c>
       <c r="B6" s="2">
-        <v>102</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
+        <v>101101</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1011</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
-        <v>103</v>
+        <v>1012</v>
       </c>
       <c r="B7" s="2">
-        <v>103</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
+        <v>1012</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1012</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
+        <v>1013</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1013</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1013</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1014</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1014</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
+        <v>1021</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1021</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1021</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2">
+        <v>1022</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1022</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1022</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
+        <v>1023</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1023</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1023</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
+        <v>1024</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1024</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1024</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2">
+        <v>1031</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1031</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1031</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2">
+        <v>1032</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1032</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1032</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2">
         <v>104</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B16" s="2">
         <v>104</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2">
+      <c r="C16" s="2">
+        <v>104</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2">
         <v>105</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B17" s="2">
         <v>105</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2">
-        <v>201</v>
-      </c>
-      <c r="B10" s="2">
-        <v>201</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2">
-        <v>202</v>
-      </c>
-      <c r="B11" s="2">
-        <v>202</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2">
-        <v>203</v>
-      </c>
-      <c r="B12" s="2">
-        <v>203</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2">
+      <c r="C17" s="2">
+        <v>105</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2013</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2014</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2014</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2015</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2">
+        <v>20211</v>
+      </c>
+      <c r="B23" s="2">
+        <v>20211</v>
+      </c>
+      <c r="C23" s="2">
+        <v>20211</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2">
+        <v>20212</v>
+      </c>
+      <c r="B24" s="2">
+        <v>20212</v>
+      </c>
+      <c r="C24" s="2">
+        <v>20212</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2">
+        <v>20221</v>
+      </c>
+      <c r="B25" s="2">
+        <v>20221</v>
+      </c>
+      <c r="C25" s="2">
+        <v>20221</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2">
+        <v>20222</v>
+      </c>
+      <c r="B26" s="2">
+        <v>20222</v>
+      </c>
+      <c r="C26" s="2">
+        <v>20222</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2">
+        <v>20231</v>
+      </c>
+      <c r="B27" s="2">
+        <v>20231</v>
+      </c>
+      <c r="C27" s="2">
+        <v>20231</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2">
+        <v>20232</v>
+      </c>
+      <c r="B28" s="2">
+        <v>20232</v>
+      </c>
+      <c r="C28" s="2">
+        <v>20232</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2">
+        <v>20311</v>
+      </c>
+      <c r="B29" s="2">
+        <v>20311</v>
+      </c>
+      <c r="C29" s="2">
+        <v>20311</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2">
+        <v>20312</v>
+      </c>
+      <c r="B30" s="2">
+        <v>20312</v>
+      </c>
+      <c r="C30" s="2">
+        <v>20312</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2">
+        <v>20313</v>
+      </c>
+      <c r="B31" s="2">
+        <v>20313</v>
+      </c>
+      <c r="C31" s="2">
+        <v>20313</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2">
+        <v>20321</v>
+      </c>
+      <c r="B32" s="2">
+        <v>20321</v>
+      </c>
+      <c r="C32" s="2">
+        <v>20321</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="2">
+        <v>20322</v>
+      </c>
+      <c r="B33" s="2">
+        <v>20322</v>
+      </c>
+      <c r="C33" s="2">
+        <v>20322</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2">
+        <v>20323</v>
+      </c>
+      <c r="B34" s="2">
+        <v>20323</v>
+      </c>
+      <c r="C34" s="2">
+        <v>20323</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2">
+        <v>2041</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2041</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2041</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2">
+        <v>2042</v>
+      </c>
+      <c r="B36" s="2">
+        <v>2042</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2042</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2">
+        <v>2051</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2051</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2051</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2">
+        <v>2052</v>
+      </c>
+      <c r="B38" s="2">
+        <v>2052</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2052</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2">
         <v>301</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B39" s="2">
         <v>301</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2">
+      <c r="C39" s="2">
+        <v>301</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="2">
+        <v>3</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="2">
         <v>302</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B40" s="2">
         <v>302</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2">
+      <c r="C40" s="2">
+        <v>302</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="2">
         <v>303</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B41" s="2">
         <v>303</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2">
+      <c r="C41" s="2">
+        <v>303</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="2">
         <v>304</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B42" s="2">
         <v>304</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7">
-      <c r="E18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>27</v>
+      <c r="C42" s="2">
+        <v>304</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="7:9">
+      <c r="G44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/test1/Animations.xlsx
+++ b/test1/Animations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>__default__</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>WalkRight</t>
+  </si>
+  <si>
+    <t>TurnLeftStand</t>
+  </si>
+  <si>
+    <t>TurnRightStand</t>
   </si>
   <si>
     <t>RunForward</t>
@@ -199,8 +205,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -231,13 +237,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -246,7 +245,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,6 +253,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,8 +273,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +294,37 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,24 +344,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,45 +374,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,187 +389,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,6 +580,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -596,51 +652,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,17 +672,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,148 +685,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,10 +1165,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6636363636364" defaultRowHeight="14.5"/>
@@ -1436,15 +1442,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" s="2" customFormat="1" spans="1:9">
       <c r="A10" s="2">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="B10" s="2">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="C10" s="2">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
@@ -1465,15 +1471,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" s="2" customFormat="1" spans="1:9">
       <c r="A11" s="2">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="B11" s="2">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="C11" s="2">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>21</v>
@@ -1496,13 +1502,13 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B12" s="2">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C12" s="2">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>22</v>
@@ -1525,13 +1531,13 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B13" s="2">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C13" s="2">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
@@ -1554,13 +1560,13 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="B14" s="2">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="C14" s="2">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>24</v>
@@ -1583,13 +1589,13 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="B15" s="2">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="C15" s="2">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>25</v>
@@ -1612,13 +1618,13 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2">
-        <v>104</v>
+        <v>1031</v>
       </c>
       <c r="B16" s="2">
-        <v>104</v>
+        <v>1031</v>
       </c>
       <c r="C16" s="2">
-        <v>104</v>
+        <v>1031</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>26</v>
@@ -1641,13 +1647,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2">
-        <v>105</v>
+        <v>1032</v>
       </c>
       <c r="B17" s="2">
-        <v>105</v>
+        <v>1032</v>
       </c>
       <c r="C17" s="2">
-        <v>105</v>
+        <v>1032</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>27</v>
@@ -1670,19 +1676,19 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2">
-        <v>2011</v>
+        <v>104</v>
       </c>
       <c r="B18" s="2">
-        <v>2011</v>
+        <v>104</v>
       </c>
       <c r="C18" s="2">
-        <v>2011</v>
+        <v>104</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -1699,19 +1705,19 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2">
-        <v>2012</v>
+        <v>105</v>
       </c>
       <c r="B19" s="2">
-        <v>2012</v>
+        <v>105</v>
       </c>
       <c r="C19" s="2">
-        <v>2012</v>
+        <v>105</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -1728,13 +1734,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B20" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="C20" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>30</v>
@@ -1757,13 +1763,13 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B21" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C21" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>31</v>
@@ -1786,13 +1792,13 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B22" s="2">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="C22" s="2">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>32</v>
@@ -1815,13 +1821,13 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2">
-        <v>20211</v>
+        <v>2014</v>
       </c>
       <c r="B23" s="2">
-        <v>20211</v>
+        <v>2014</v>
       </c>
       <c r="C23" s="2">
-        <v>20211</v>
+        <v>2014</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>33</v>
@@ -1844,13 +1850,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2">
-        <v>20212</v>
+        <v>2015</v>
       </c>
       <c r="B24" s="2">
-        <v>20212</v>
+        <v>2015</v>
       </c>
       <c r="C24" s="2">
-        <v>20212</v>
+        <v>2015</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>34</v>
@@ -1873,13 +1879,13 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2">
-        <v>20221</v>
+        <v>20211</v>
       </c>
       <c r="B25" s="2">
-        <v>20221</v>
+        <v>20211</v>
       </c>
       <c r="C25" s="2">
-        <v>20221</v>
+        <v>20211</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>35</v>
@@ -1902,13 +1908,13 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2">
-        <v>20222</v>
+        <v>20212</v>
       </c>
       <c r="B26" s="2">
-        <v>20222</v>
+        <v>20212</v>
       </c>
       <c r="C26" s="2">
-        <v>20222</v>
+        <v>20212</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>36</v>
@@ -1931,13 +1937,13 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2">
-        <v>20231</v>
+        <v>20221</v>
       </c>
       <c r="B27" s="2">
-        <v>20231</v>
+        <v>20221</v>
       </c>
       <c r="C27" s="2">
-        <v>20231</v>
+        <v>20221</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>37</v>
@@ -1960,13 +1966,13 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2">
-        <v>20232</v>
+        <v>20222</v>
       </c>
       <c r="B28" s="2">
-        <v>20232</v>
+        <v>20222</v>
       </c>
       <c r="C28" s="2">
-        <v>20232</v>
+        <v>20222</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>38</v>
@@ -1989,13 +1995,13 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2">
-        <v>20311</v>
+        <v>20231</v>
       </c>
       <c r="B29" s="2">
-        <v>20311</v>
+        <v>20231</v>
       </c>
       <c r="C29" s="2">
-        <v>20311</v>
+        <v>20231</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>39</v>
@@ -2018,13 +2024,13 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2">
-        <v>20312</v>
+        <v>20232</v>
       </c>
       <c r="B30" s="2">
-        <v>20312</v>
+        <v>20232</v>
       </c>
       <c r="C30" s="2">
-        <v>20312</v>
+        <v>20232</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>40</v>
@@ -2047,13 +2053,13 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2">
-        <v>20313</v>
+        <v>20311</v>
       </c>
       <c r="B31" s="2">
-        <v>20313</v>
+        <v>20311</v>
       </c>
       <c r="C31" s="2">
-        <v>20313</v>
+        <v>20311</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>41</v>
@@ -2076,13 +2082,13 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2">
-        <v>20321</v>
+        <v>20312</v>
       </c>
       <c r="B32" s="2">
-        <v>20321</v>
+        <v>20312</v>
       </c>
       <c r="C32" s="2">
-        <v>20321</v>
+        <v>20312</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>42</v>
@@ -2105,13 +2111,13 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="2">
-        <v>20322</v>
+        <v>20313</v>
       </c>
       <c r="B33" s="2">
-        <v>20322</v>
+        <v>20313</v>
       </c>
       <c r="C33" s="2">
-        <v>20322</v>
+        <v>20313</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>43</v>
@@ -2134,13 +2140,13 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2">
-        <v>20323</v>
+        <v>20321</v>
       </c>
       <c r="B34" s="2">
-        <v>20323</v>
+        <v>20321</v>
       </c>
       <c r="C34" s="2">
-        <v>20323</v>
+        <v>20321</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>44</v>
@@ -2163,13 +2169,13 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2">
-        <v>2041</v>
+        <v>20322</v>
       </c>
       <c r="B35" s="2">
-        <v>2041</v>
+        <v>20322</v>
       </c>
       <c r="C35" s="2">
-        <v>2041</v>
+        <v>20322</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>45</v>
@@ -2192,13 +2198,13 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2">
-        <v>2042</v>
+        <v>20323</v>
       </c>
       <c r="B36" s="2">
-        <v>2042</v>
+        <v>20323</v>
       </c>
       <c r="C36" s="2">
-        <v>2042</v>
+        <v>20323</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>46</v>
@@ -2221,13 +2227,13 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2">
-        <v>2051</v>
+        <v>2041</v>
       </c>
       <c r="B37" s="2">
-        <v>2051</v>
+        <v>2041</v>
       </c>
       <c r="C37" s="2">
-        <v>2051</v>
+        <v>2041</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>47</v>
@@ -2250,13 +2256,13 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2">
-        <v>2052</v>
+        <v>2042</v>
       </c>
       <c r="B38" s="2">
-        <v>2052</v>
+        <v>2042</v>
       </c>
       <c r="C38" s="2">
-        <v>2052</v>
+        <v>2042</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>48</v>
@@ -2279,19 +2285,19 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2">
-        <v>301</v>
+        <v>2051</v>
       </c>
       <c r="B39" s="2">
-        <v>301</v>
+        <v>2051</v>
       </c>
       <c r="C39" s="2">
-        <v>301</v>
+        <v>2051</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
@@ -2308,19 +2314,19 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="2">
-        <v>302</v>
+        <v>2052</v>
       </c>
       <c r="B40" s="2">
-        <v>302</v>
+        <v>2052</v>
       </c>
       <c r="C40" s="2">
-        <v>302</v>
+        <v>2052</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E40" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" s="2">
         <v>0</v>
@@ -2337,13 +2343,13 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B41" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C41" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>51</v>
@@ -2366,13 +2372,13 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B42" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C42" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>52</v>
@@ -2393,28 +2399,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="7:9">
-      <c r="G44" s="2" t="s">
+    <row r="43" spans="1:9">
+      <c r="A43" s="2">
+        <v>303</v>
+      </c>
+      <c r="B43" s="2">
+        <v>303</v>
+      </c>
+      <c r="C43" s="2">
+        <v>303</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="E43" s="2">
+        <v>3</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="2">
+        <v>304</v>
+      </c>
+      <c r="B44" s="2">
+        <v>304</v>
+      </c>
+      <c r="C44" s="2">
+        <v>304</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="E44" s="2">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="7:9">
+      <c r="G46" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="3:3">
-      <c r="C46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="47" spans="3:5">
-      <c r="C47" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="2" t="s">
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48" s="2" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5">
+      <c r="C49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/test1/Animations.xlsx
+++ b/test1/Animations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>__default__</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>KnockUp</t>
+  </si>
+  <si>
+    <t>Death</t>
   </si>
   <si>
     <t>攻击招式的伤害因子</t>
@@ -237,7 +240,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,7 +262,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,13 +270,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,17 +283,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,23 +292,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,6 +310,37 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,30 +367,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,108 +392,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -498,78 +573,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,11 +588,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,21 +615,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,6 +649,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -656,36 +683,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,130 +706,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -915,7 +918,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="E0FFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1165,10 +1168,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6636363636364" defaultRowHeight="14.5"/>
@@ -2457,28 +2460,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="7:9">
-      <c r="G46" s="2" t="s">
+    <row r="45" s="2" customFormat="1" spans="1:9">
+      <c r="A45" s="2">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="E45" s="2">
+        <v>4</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="7:9">
+      <c r="G47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="48" spans="3:3">
-      <c r="C48" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="3:5">
+    <row r="49" spans="3:3">
       <c r="C49" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="2" t="s">
+    </row>
+    <row r="50" spans="3:5">
+      <c r="C50" s="2" t="s">
         <v>60</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/test1/Animations.xlsx
+++ b/test1/Animations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>__default__</t>
   </si>
@@ -46,9 +46,6 @@
     <t>AnimationType</t>
   </si>
   <si>
-    <t>TargetType</t>
-  </si>
-  <si>
     <t>AttackDamageRatio</t>
   </si>
   <si>
@@ -167,6 +164,12 @@
   </si>
   <si>
     <t>JumpAtk2</t>
+  </si>
+  <si>
+    <t>StuntAtk1</t>
+  </si>
+  <si>
+    <t>StuntAtk2</t>
   </si>
   <si>
     <t>BreakLite</t>
@@ -207,10 +210,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -240,19 +243,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -260,9 +257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,7 +280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,17 +303,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,22 +329,6 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,23 +349,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,187 +395,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,26 +589,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,17 +628,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,11 +672,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,7 +691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -706,130 +709,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -918,7 +921,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="E0FFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1168,25 +1171,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6636363636364" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="3" width="15.6636363636364" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.6363636363636" style="2" customWidth="1"/>
-    <col min="5" max="6" width="15.6636363636364" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.3636363636364" style="2" customWidth="1"/>
-    <col min="8" max="8" width="27.3636363636364" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24" style="2" customWidth="1"/>
-    <col min="10" max="16379" width="15.6636363636364" style="2" customWidth="1"/>
-    <col min="16380" max="16384" width="15.6636363636364" style="2"/>
+    <col min="5" max="5" width="15.6636363636364" style="2" customWidth="1"/>
+    <col min="6" max="6" width="30.3636363636364" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.3636363636364" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24" style="2" customWidth="1"/>
+    <col min="9" max="16378" width="15.6636363636364" style="2" customWidth="1"/>
+    <col min="16379" max="16384" width="15.6636363636364" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:13">
+    <row r="1" ht="15.5" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="F1" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1" s="3">
         <v>1</v>
@@ -1205,15 +1208,12 @@
       <c r="H1" s="3">
         <v>1</v>
       </c>
-      <c r="I1" s="3">
-        <v>1</v>
-      </c>
+      <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="14" spans="1:9">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -1238,11 +1238,8 @@
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15.5" spans="1:9">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15.5" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1258,7 +1255,7 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1267,11 +1264,8 @@
       <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1282,13 +1276,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
@@ -1296,11 +1290,8 @@
       <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>1011</v>
       </c>
@@ -1311,13 +1302,13 @@
         <v>1011</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -1325,11 +1316,8 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>101101</v>
       </c>
@@ -1340,13 +1328,13 @@
         <v>1011</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -1354,11 +1342,8 @@
       <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>1012</v>
       </c>
@@ -1369,13 +1354,13 @@
         <v>1012</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -1383,11 +1368,8 @@
       <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>1013</v>
       </c>
@@ -1398,13 +1380,13 @@
         <v>1013</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -1412,11 +1394,8 @@
       <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>1014</v>
       </c>
@@ -1427,13 +1406,13 @@
         <v>1014</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -1441,11 +1420,8 @@
       <c r="H9" s="2">
         <v>1</v>
       </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:9">
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:8">
       <c r="A10" s="2">
         <v>1015</v>
       </c>
@@ -1456,13 +1432,13 @@
         <v>1015</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
         <v>1</v>
@@ -1470,11 +1446,8 @@
       <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:9">
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:8">
       <c r="A11" s="2">
         <v>1016</v>
       </c>
@@ -1485,13 +1458,13 @@
         <v>1016</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -1499,11 +1472,8 @@
       <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>1021</v>
       </c>
@@ -1514,13 +1484,13 @@
         <v>1021</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
         <v>1</v>
@@ -1528,11 +1498,8 @@
       <c r="H12" s="2">
         <v>1</v>
       </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>1022</v>
       </c>
@@ -1543,13 +1510,13 @@
         <v>1022</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -1557,11 +1524,8 @@
       <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>1023</v>
       </c>
@@ -1572,13 +1536,13 @@
         <v>1023</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -1586,11 +1550,8 @@
       <c r="H14" s="2">
         <v>1</v>
       </c>
-      <c r="I14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>1024</v>
       </c>
@@ -1601,13 +1562,13 @@
         <v>1024</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -1615,11 +1576,8 @@
       <c r="H15" s="2">
         <v>1</v>
       </c>
-      <c r="I15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>1031</v>
       </c>
@@ -1630,13 +1588,13 @@
         <v>1031</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>
@@ -1644,11 +1602,8 @@
       <c r="H16" s="2">
         <v>1</v>
       </c>
-      <c r="I16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>1032</v>
       </c>
@@ -1659,13 +1614,13 @@
         <v>1032</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
         <v>1</v>
@@ -1673,11 +1628,8 @@
       <c r="H17" s="2">
         <v>1</v>
       </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>104</v>
       </c>
@@ -1688,13 +1640,13 @@
         <v>104</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2">
         <v>1</v>
@@ -1702,11 +1654,8 @@
       <c r="H18" s="2">
         <v>1</v>
       </c>
-      <c r="I18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>105</v>
       </c>
@@ -1717,13 +1666,13 @@
         <v>105</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="2">
         <v>1</v>
@@ -1731,11 +1680,8 @@
       <c r="H19" s="2">
         <v>1</v>
       </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>2011</v>
       </c>
@@ -1746,13 +1692,13 @@
         <v>2011</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
       </c>
       <c r="F20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
         <v>1</v>
@@ -1760,11 +1706,8 @@
       <c r="H20" s="2">
         <v>1</v>
       </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>2012</v>
       </c>
@@ -1775,13 +1718,13 @@
         <v>2012</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
       </c>
       <c r="F21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2">
         <v>1</v>
@@ -1789,11 +1732,8 @@
       <c r="H21" s="2">
         <v>1</v>
       </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2">
         <v>2013</v>
       </c>
@@ -1804,13 +1744,13 @@
         <v>2013</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
       </c>
       <c r="F22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
         <v>1</v>
@@ -1818,11 +1758,8 @@
       <c r="H22" s="2">
         <v>1</v>
       </c>
-      <c r="I22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2">
         <v>2014</v>
       </c>
@@ -1833,13 +1770,13 @@
         <v>2014</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
       </c>
       <c r="F23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
@@ -1847,11 +1784,8 @@
       <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2">
         <v>2015</v>
       </c>
@@ -1862,13 +1796,13 @@
         <v>2015</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
       </c>
       <c r="F24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -1876,11 +1810,8 @@
       <c r="H24" s="2">
         <v>1</v>
       </c>
-      <c r="I24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2">
         <v>20211</v>
       </c>
@@ -1891,13 +1822,13 @@
         <v>20211</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
       </c>
       <c r="F25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
@@ -1905,11 +1836,8 @@
       <c r="H25" s="2">
         <v>1</v>
       </c>
-      <c r="I25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2">
         <v>20212</v>
       </c>
@@ -1920,13 +1848,13 @@
         <v>20212</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
       </c>
       <c r="F26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2">
         <v>1</v>
@@ -1934,11 +1862,8 @@
       <c r="H26" s="2">
         <v>1</v>
       </c>
-      <c r="I26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2">
         <v>20221</v>
       </c>
@@ -1949,13 +1874,13 @@
         <v>20221</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
       </c>
       <c r="F27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="2">
         <v>1</v>
@@ -1963,11 +1888,8 @@
       <c r="H27" s="2">
         <v>1</v>
       </c>
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="2">
         <v>20222</v>
       </c>
@@ -1978,13 +1900,13 @@
         <v>20222</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
       </c>
       <c r="F28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="2">
         <v>1</v>
@@ -1992,11 +1914,8 @@
       <c r="H28" s="2">
         <v>1</v>
       </c>
-      <c r="I28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2">
         <v>20231</v>
       </c>
@@ -2007,13 +1926,13 @@
         <v>20231</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
       </c>
       <c r="F29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="2">
         <v>1</v>
@@ -2021,11 +1940,8 @@
       <c r="H29" s="2">
         <v>1</v>
       </c>
-      <c r="I29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="2">
         <v>20232</v>
       </c>
@@ -2036,13 +1952,13 @@
         <v>20232</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
       </c>
       <c r="F30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="2">
         <v>1</v>
@@ -2050,11 +1966,8 @@
       <c r="H30" s="2">
         <v>1</v>
       </c>
-      <c r="I30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>20311</v>
       </c>
@@ -2065,13 +1978,13 @@
         <v>20311</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
       </c>
       <c r="F31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="2">
         <v>1</v>
@@ -2079,11 +1992,8 @@
       <c r="H31" s="2">
         <v>1</v>
       </c>
-      <c r="I31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="2">
         <v>20312</v>
       </c>
@@ -2094,13 +2004,13 @@
         <v>20312</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
       </c>
       <c r="F32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
@@ -2108,11 +2018,8 @@
       <c r="H32" s="2">
         <v>1</v>
       </c>
-      <c r="I32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="2">
         <v>20313</v>
       </c>
@@ -2123,13 +2030,13 @@
         <v>20313</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2">
         <v>2</v>
       </c>
       <c r="F33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -2137,11 +2044,8 @@
       <c r="H33" s="2">
         <v>1</v>
       </c>
-      <c r="I33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="2">
         <v>20321</v>
       </c>
@@ -2152,13 +2056,13 @@
         <v>20321</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
       </c>
       <c r="F34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -2166,11 +2070,8 @@
       <c r="H34" s="2">
         <v>1</v>
       </c>
-      <c r="I34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="2">
         <v>20322</v>
       </c>
@@ -2181,13 +2082,13 @@
         <v>20322</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2">
         <v>2</v>
       </c>
       <c r="F35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="2">
         <v>1</v>
@@ -2195,11 +2096,8 @@
       <c r="H35" s="2">
         <v>1</v>
       </c>
-      <c r="I35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="2">
         <v>20323</v>
       </c>
@@ -2210,13 +2108,13 @@
         <v>20323</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
       </c>
       <c r="F36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
@@ -2224,11 +2122,8 @@
       <c r="H36" s="2">
         <v>1</v>
       </c>
-      <c r="I36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="2">
         <v>2041</v>
       </c>
@@ -2239,13 +2134,13 @@
         <v>2041</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2">
         <v>2</v>
       </c>
       <c r="F37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="2">
         <v>1</v>
@@ -2253,11 +2148,8 @@
       <c r="H37" s="2">
         <v>1</v>
       </c>
-      <c r="I37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="2">
         <v>2042</v>
       </c>
@@ -2268,13 +2160,13 @@
         <v>2042</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2">
         <v>2</v>
       </c>
       <c r="F38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
@@ -2282,11 +2174,8 @@
       <c r="H38" s="2">
         <v>1</v>
       </c>
-      <c r="I38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="2">
         <v>2051</v>
       </c>
@@ -2297,13 +2186,13 @@
         <v>2051</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E39" s="2">
         <v>2</v>
       </c>
       <c r="F39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="2">
         <v>1</v>
@@ -2311,11 +2200,8 @@
       <c r="H39" s="2">
         <v>1</v>
       </c>
-      <c r="I39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="2">
         <v>2052</v>
       </c>
@@ -2326,13 +2212,13 @@
         <v>2052</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40" s="2">
         <v>2</v>
       </c>
       <c r="F40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="2">
         <v>1</v>
@@ -2340,86 +2226,77 @@
       <c r="H40" s="2">
         <v>1</v>
       </c>
-      <c r="I40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:8">
       <c r="A41" s="2">
+        <v>2061</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2061</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2061</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="2">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:8">
+      <c r="A42" s="2">
+        <v>2062</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2062</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2062</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="2">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2">
         <v>301</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B43" s="2">
         <v>301</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C43" s="2">
         <v>301</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="2">
-        <v>3</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2">
-        <v>1</v>
-      </c>
-      <c r="I41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="2">
-        <v>302</v>
-      </c>
-      <c r="B42" s="2">
-        <v>302</v>
-      </c>
-      <c r="C42" s="2">
-        <v>302</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="E42" s="2">
-        <v>3</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2">
-        <v>1</v>
-      </c>
-      <c r="I42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="2">
-        <v>303</v>
-      </c>
-      <c r="B43" s="2">
-        <v>303</v>
-      </c>
-      <c r="C43" s="2">
-        <v>303</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="E43" s="2">
         <v>3</v>
       </c>
       <c r="F43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
@@ -2427,28 +2304,25 @@
       <c r="H43" s="2">
         <v>1</v>
       </c>
-      <c r="I43" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B44" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C44" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E44" s="2">
         <v>3</v>
       </c>
       <c r="F44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="2">
         <v>1</v>
@@ -2456,61 +2330,107 @@
       <c r="H44" s="2">
         <v>1</v>
       </c>
-      <c r="I44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" s="2" customFormat="1" spans="1:9">
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="2">
+        <v>303</v>
+      </c>
+      <c r="B45" s="2">
+        <v>303</v>
+      </c>
+      <c r="C45" s="2">
+        <v>303</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2">
+        <v>304</v>
+      </c>
+      <c r="B46" s="2">
+        <v>304</v>
+      </c>
+      <c r="C46" s="2">
+        <v>304</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="1:8">
+      <c r="A47" s="2">
         <v>4</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B47" s="2">
         <v>4</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C47" s="2">
         <v>4</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="2">
+      <c r="D47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="2">
         <v>4</v>
       </c>
-      <c r="F45" s="2">
-        <v>0</v>
-      </c>
-      <c r="G45" s="2">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2">
-        <v>1</v>
-      </c>
-      <c r="I45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="7:9">
-      <c r="G47" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" s="2" t="s">
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8">
+      <c r="F49" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="3:5">
-      <c r="C50" s="2" t="s">
+    <row r="51" spans="3:3">
+      <c r="C51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="2" t="s">
+    </row>
+    <row r="52" spans="3:5">
+      <c r="C52" s="2" t="s">
         <v>61</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/test1/Animations.xlsx
+++ b/test1/Animations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>__default__</t>
   </si>
@@ -55,6 +55,9 @@
     <t>DefenseImpactRatio</t>
   </si>
   <si>
+    <t>StaminaCostRatio</t>
+  </si>
+  <si>
     <t>Idle</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>攻击招式的韧性保护因子</t>
+  </si>
+  <si>
+    <t>攻击招式的耗耐因子</t>
   </si>
   <si>
     <t>此表与weapon frame的关联</t>
@@ -210,9 +216,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -249,7 +255,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -257,8 +269,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,23 +301,47 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,22 +362,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -332,34 +369,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -373,14 +386,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,187 +401,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,17 +595,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,6 +609,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,24 +639,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,6 +660,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -671,27 +692,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -700,139 +706,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1173,8 +1179,8 @@
   <sheetPr/>
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6636363636364" defaultRowHeight="14.5"/>
@@ -1184,8 +1190,8 @@
     <col min="5" max="5" width="15.6636363636364" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.3636363636364" style="2" customWidth="1"/>
     <col min="7" max="7" width="27.3636363636364" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24" style="2" customWidth="1"/>
-    <col min="9" max="16378" width="15.6636363636364" style="2" customWidth="1"/>
+    <col min="8" max="9" width="24" style="2" customWidth="1"/>
+    <col min="10" max="16378" width="15.6636363636364" style="2" customWidth="1"/>
     <col min="16379" max="16384" width="15.6636363636364" style="2"/>
   </cols>
   <sheetData>
@@ -1208,12 +1214,14 @@
       <c r="H1" s="3">
         <v>1</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="3">
+        <v>1</v>
+      </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="14" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1238,8 +1246,11 @@
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15.5" spans="1:8">
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15.5" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1264,8 +1275,11 @@
       <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1276,7 +1290,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -1290,8 +1304,11 @@
       <c r="H4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>1011</v>
       </c>
@@ -1302,7 +1319,7 @@
         <v>1011</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1316,8 +1333,11 @@
       <c r="H5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>101101</v>
       </c>
@@ -1328,7 +1348,7 @@
         <v>1011</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1342,8 +1362,11 @@
       <c r="H6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>1012</v>
       </c>
@@ -1354,7 +1377,7 @@
         <v>1012</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1368,8 +1391,11 @@
       <c r="H7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>1013</v>
       </c>
@@ -1380,7 +1406,7 @@
         <v>1013</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1394,8 +1420,11 @@
       <c r="H8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>1014</v>
       </c>
@@ -1406,7 +1435,7 @@
         <v>1014</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1420,8 +1449,11 @@
       <c r="H9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:8">
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:9">
       <c r="A10" s="2">
         <v>1015</v>
       </c>
@@ -1432,7 +1464,7 @@
         <v>1015</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1446,8 +1478,11 @@
       <c r="H10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:8">
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:9">
       <c r="A11" s="2">
         <v>1016</v>
       </c>
@@ -1458,7 +1493,7 @@
         <v>1016</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -1472,8 +1507,11 @@
       <c r="H11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>1021</v>
       </c>
@@ -1484,7 +1522,7 @@
         <v>1021</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1498,8 +1536,11 @@
       <c r="H12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>1022</v>
       </c>
@@ -1510,7 +1551,7 @@
         <v>1022</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -1524,8 +1565,11 @@
       <c r="H13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>1023</v>
       </c>
@@ -1536,7 +1580,7 @@
         <v>1023</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1550,8 +1594,11 @@
       <c r="H14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>1024</v>
       </c>
@@ -1562,7 +1609,7 @@
         <v>1024</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1576,8 +1623,11 @@
       <c r="H15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>1031</v>
       </c>
@@ -1588,7 +1638,7 @@
         <v>1031</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1602,8 +1652,11 @@
       <c r="H16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>1032</v>
       </c>
@@ -1614,7 +1667,7 @@
         <v>1032</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -1628,8 +1681,11 @@
       <c r="H17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>104</v>
       </c>
@@ -1640,7 +1696,7 @@
         <v>104</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -1654,8 +1710,11 @@
       <c r="H18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>105</v>
       </c>
@@ -1666,7 +1725,7 @@
         <v>105</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -1680,8 +1739,11 @@
       <c r="H19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>2011</v>
       </c>
@@ -1692,7 +1754,7 @@
         <v>2011</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
@@ -1706,8 +1768,11 @@
       <c r="H20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>2012</v>
       </c>
@@ -1718,7 +1783,7 @@
         <v>2012</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
@@ -1732,8 +1797,11 @@
       <c r="H21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>2013</v>
       </c>
@@ -1744,7 +1812,7 @@
         <v>2013</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -1758,8 +1826,11 @@
       <c r="H22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>2014</v>
       </c>
@@ -1770,7 +1841,7 @@
         <v>2014</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -1784,8 +1855,11 @@
       <c r="H23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>2015</v>
       </c>
@@ -1796,7 +1870,7 @@
         <v>2015</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -1810,8 +1884,11 @@
       <c r="H24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <v>20211</v>
       </c>
@@ -1822,7 +1899,7 @@
         <v>20211</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -1836,8 +1913,11 @@
       <c r="H25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>20212</v>
       </c>
@@ -1848,7 +1928,7 @@
         <v>20212</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
@@ -1862,8 +1942,11 @@
       <c r="H26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>20221</v>
       </c>
@@ -1874,7 +1957,7 @@
         <v>20221</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
@@ -1888,8 +1971,11 @@
       <c r="H27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>20222</v>
       </c>
@@ -1900,7 +1986,7 @@
         <v>20222</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
@@ -1914,8 +2000,11 @@
       <c r="H28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
         <v>20231</v>
       </c>
@@ -1926,7 +2015,7 @@
         <v>20231</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
@@ -1940,8 +2029,11 @@
       <c r="H29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="2">
         <v>20232</v>
       </c>
@@ -1952,7 +2044,7 @@
         <v>20232</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
@@ -1966,8 +2058,11 @@
       <c r="H30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2">
         <v>20311</v>
       </c>
@@ -1978,7 +2073,7 @@
         <v>20311</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
@@ -1992,8 +2087,11 @@
       <c r="H31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="2">
         <v>20312</v>
       </c>
@@ -2004,7 +2102,7 @@
         <v>20312</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
@@ -2018,8 +2116,11 @@
       <c r="H32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="2">
         <v>20313</v>
       </c>
@@ -2030,7 +2131,7 @@
         <v>20313</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E33" s="2">
         <v>2</v>
@@ -2044,8 +2145,11 @@
       <c r="H33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="2">
         <v>20321</v>
       </c>
@@ -2056,7 +2160,7 @@
         <v>20321</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
@@ -2070,8 +2174,11 @@
       <c r="H34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="2">
         <v>20322</v>
       </c>
@@ -2082,7 +2189,7 @@
         <v>20322</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2">
         <v>2</v>
@@ -2096,8 +2203,11 @@
       <c r="H35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="2">
         <v>20323</v>
       </c>
@@ -2108,7 +2218,7 @@
         <v>20323</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
@@ -2122,8 +2232,11 @@
       <c r="H36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="2">
         <v>2041</v>
       </c>
@@ -2134,7 +2247,7 @@
         <v>2041</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2">
         <v>2</v>
@@ -2148,8 +2261,11 @@
       <c r="H37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="2">
         <v>2042</v>
       </c>
@@ -2160,7 +2276,7 @@
         <v>2042</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E38" s="2">
         <v>2</v>
@@ -2174,8 +2290,11 @@
       <c r="H38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="2">
         <v>2051</v>
       </c>
@@ -2186,7 +2305,7 @@
         <v>2051</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E39" s="2">
         <v>2</v>
@@ -2200,8 +2319,11 @@
       <c r="H39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="2">
         <v>2052</v>
       </c>
@@ -2212,7 +2334,7 @@
         <v>2052</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E40" s="2">
         <v>2</v>
@@ -2226,8 +2348,11 @@
       <c r="H40" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" s="2" customFormat="1" spans="1:8">
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="1:9">
       <c r="A41" s="2">
         <v>2061</v>
       </c>
@@ -2238,7 +2363,7 @@
         <v>2061</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E41" s="2">
         <v>5</v>
@@ -2252,8 +2377,11 @@
       <c r="H41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" s="2" customFormat="1" spans="1:8">
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="1:9">
       <c r="A42" s="2">
         <v>2062</v>
       </c>
@@ -2264,7 +2392,7 @@
         <v>2062</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E42" s="2">
         <v>5</v>
@@ -2278,8 +2406,11 @@
       <c r="H42" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="2">
         <v>301</v>
       </c>
@@ -2290,7 +2421,7 @@
         <v>301</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E43" s="2">
         <v>3</v>
@@ -2304,8 +2435,11 @@
       <c r="H43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="2">
         <v>302</v>
       </c>
@@ -2316,7 +2450,7 @@
         <v>302</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E44" s="2">
         <v>3</v>
@@ -2330,8 +2464,11 @@
       <c r="H44" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="2">
         <v>303</v>
       </c>
@@ -2342,7 +2479,7 @@
         <v>303</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E45" s="2">
         <v>3</v>
@@ -2356,8 +2493,11 @@
       <c r="H45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="2">
         <v>304</v>
       </c>
@@ -2368,7 +2508,7 @@
         <v>304</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E46" s="2">
         <v>3</v>
@@ -2382,8 +2522,11 @@
       <c r="H46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" s="2" customFormat="1" spans="1:8">
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="1:9">
       <c r="A47" s="2">
         <v>4</v>
       </c>
@@ -2394,7 +2537,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E47" s="2">
         <v>4</v>
@@ -2408,29 +2551,35 @@
       <c r="H47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="6:8">
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9">
       <c r="F49" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="3:5">
       <c r="C52" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
